--- a/works/nettyServer/src/main/resources/excels/Item.xlsx
+++ b/works/nettyServer/src/main/resources/excels/Item.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>space</t>
   </si>
   <si>
     <t>活络丹</t>
@@ -71,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,11 +95,116 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -110,112 +218,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,61 +241,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,19 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,54 +415,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -383,42 +422,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,15 +432,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,6 +509,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -537,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1031,15 +1034,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1066,6 +1069,9 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1073,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -1090,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -1107,7 +1113,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>300</v>
@@ -1124,7 +1130,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>300</v>
@@ -1136,12 +1142,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -1152,13 +1158,16 @@
       <c r="I6">
         <v>2</v>
       </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -1175,13 +1184,16 @@
       <c r="I7">
         <v>2</v>
       </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -1197,6 +1209,9 @@
       </c>
       <c r="I8">
         <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/works/nettyServer/src/main/resources/excels/Item.xlsx
+++ b/works/nettyServer/src/main/resources/excels/Item.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -48,6 +48,9 @@
     <t>space</t>
   </si>
   <si>
+    <t>wear</t>
+  </si>
+  <si>
     <t>活络丹</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
   </si>
   <si>
     <t>莲华冠</t>
+  </si>
+  <si>
+    <t>震旦铠</t>
   </si>
 </sst>
 </file>
@@ -74,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,6 +101,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -110,6 +124,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -117,15 +139,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,37 +149,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,9 +171,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,17 +192,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,15 +232,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,25 +247,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,151 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,34 +443,19 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -481,6 +472,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,21 +538,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,151 +546,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1034,15 +1043,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1072,6 +1081,9 @@
       </c>
       <c r="J1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1079,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -1096,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -1113,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>300</v>
@@ -1130,7 +1142,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>300</v>
@@ -1142,12 +1154,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -1161,13 +1173,16 @@
       <c r="J6">
         <v>3</v>
       </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -1187,13 +1202,16 @@
       <c r="J7">
         <v>2</v>
       </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -1212,6 +1230,38 @@
       </c>
       <c r="J8">
         <v>1</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/works/nettyServer/src/main/resources/excels/Item.xlsx
+++ b/works/nettyServer/src/main/resources/excels/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8555"/>
+    <workbookView windowWidth="21000" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,6 +94,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -101,16 +138,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,22 +195,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,37 +210,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,52 +233,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,13 +247,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,169 +403,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,13 +441,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,17 +495,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,9 +530,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,133 +558,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1086,7 +1086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1102,8 +1102,11 @@
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1119,8 +1122,11 @@
       <c r="I3">
         <v>1</v>
       </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1136,8 +1142,11 @@
       <c r="I4">
         <v>1</v>
       </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1152,6 +1161,9 @@
       </c>
       <c r="I5">
         <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1165,7 +1177,7 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <v>1000</v>
+        <v>99999</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1194,7 +1206,7 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>1000</v>
+        <v>99999</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1223,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="H8">
-        <v>1000</v>
+        <v>99999</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -1252,7 +1264,7 @@
         <v>20</v>
       </c>
       <c r="H9">
-        <v>1000</v>
+        <v>99999</v>
       </c>
       <c r="I9">
         <v>2</v>

--- a/works/nettyServer/src/main/resources/excels/Item.xlsx
+++ b/works/nettyServer/src/main/resources/excels/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8675"/>
+    <workbookView windowWidth="15708" windowHeight="8435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>wear</t>
+  </si>
+  <si>
+    <t>maxNum</t>
   </si>
   <si>
     <t>活络丹</t>
@@ -80,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,17 +97,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,27 +128,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,9 +141,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,14 +158,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,39 +196,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -218,21 +236,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,91 +250,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,85 +400,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,17 +444,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,17 +477,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,11 +512,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,17 +541,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -546,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,133 +561,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,15 +1046,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1085,13 +1088,16 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -1105,13 +1111,16 @@
       <c r="K2">
         <v>0</v>
       </c>
+      <c r="L2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -1125,13 +1134,16 @@
       <c r="K3">
         <v>0</v>
       </c>
+      <c r="L3">
+        <v>99</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>300</v>
@@ -1145,13 +1157,16 @@
       <c r="K4">
         <v>0</v>
       </c>
+      <c r="L4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>300</v>
@@ -1165,13 +1180,16 @@
       <c r="K5">
         <v>0</v>
       </c>
+      <c r="L5">
+        <v>99</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -1188,13 +1206,16 @@
       <c r="K6">
         <v>100</v>
       </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -1217,13 +1238,16 @@
       <c r="K7">
         <v>100</v>
       </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -1246,13 +1270,16 @@
       <c r="K8">
         <v>100</v>
       </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -1274,6 +1301,9 @@
       </c>
       <c r="K9">
         <v>100</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
